--- a/Testdata/PRISMAPage_Data_Staging.xlsx
+++ b/Testdata/PRISMAPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537720A-2E75-43EA-BD1F-03F8015D023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B6947-FA84-4558-969F-3C10449517D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Economic</t>
   </si>
@@ -70,21 +70,6 @@
     <t>Prisma_Population</t>
   </si>
   <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA_ICER.Clinical.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA_ICER.QOL.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA_ICER.Econ.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\Test_Sachin\13. PRISMA_AAA_mCRPC_ID Update.xlsx</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\PRISMA\Test_Sachin\mCRPC_Clinical.PNG</t>
   </si>
   <si>
@@ -97,19 +82,16 @@
     <t>Test - Test</t>
   </si>
   <si>
-    <t>test demo 1234 - test demo 1234</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>pop1</t>
   </si>
   <si>
-    <t>pop2</t>
-  </si>
-  <si>
-    <t>Interventional</t>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\Test_Sachin\12. PRISMA_Pfizer_IC AML Mylotarg.xlsx</t>
   </si>
 </sst>
 </file>
@@ -437,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +441,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -488,16 +470,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>500</v>
@@ -512,12 +494,12 @@
         <v>2000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -535,12 +517,12 @@
         <v>2400</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -558,12 +540,12 @@
         <v>2800</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -581,105 +563,7 @@
         <v>3200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
-        <v>501</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1501</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2001</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>601</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1201</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1801</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2401</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>701</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1401</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2101</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2801</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>801</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1601</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2401</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3201</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/PRISMAPage_Data_Staging.xlsx
+++ b/Testdata/PRISMAPage_Data_Staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B6947-FA84-4558-969F-3C10449517D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80144629-37EF-425B-8D68-4E2634511297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Economic</t>
   </si>
@@ -55,18 +55,6 @@
     <t>Prisma_Image</t>
   </si>
   <si>
-    <t>OriginalStudiesNumbers</t>
-  </si>
-  <si>
-    <t>RecordsNumber</t>
-  </si>
-  <si>
-    <t>fullTextReviewRecordsNumber</t>
-  </si>
-  <si>
-    <t>totalRecordsNumber</t>
-  </si>
-  <si>
     <t>Prisma_Population</t>
   </si>
   <si>
@@ -92,6 +80,24 @@
   </si>
   <si>
     <t>\Testdata\Templates\PRISMA\Test_Sachin\12. PRISMA_Pfizer_IC AML Mylotarg.xlsx</t>
+  </si>
+  <si>
+    <t>stdy_type_locators</t>
+  </si>
+  <si>
+    <t>stdy_type_values</t>
+  </si>
+  <si>
+    <t>original_studies</t>
+  </si>
+  <si>
+    <t>records_number</t>
+  </si>
+  <si>
+    <t>fulltext_review</t>
+  </si>
+  <si>
+    <t>total_record_number</t>
   </si>
 </sst>
 </file>
@@ -133,12 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,32 +424,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -453,117 +455,87 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
-        <v>500</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>600</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2400</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>700</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1400</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2100</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2800</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>800</v>
       </c>
-      <c r="F5" s="2">
-        <v>1600</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2400</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3200</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
+      <c r="G5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
